--- a/NatureConservancy/ArcMap_scripts2/output2.xlsx
+++ b/NatureConservancy/ArcMap_scripts2/output2.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -408,702 +408,2742 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1492.85</v>
+        <v>1494.51</v>
       </c>
       <c r="D2">
-        <v>43.347453964700001</v>
+        <v>43.340171360399999</v>
       </c>
       <c r="E2">
-        <v>-114.16920396899999</v>
+        <v>-114.208063008</v>
       </c>
       <c r="F2">
-        <v>2.7358106691733195E-2</v>
+        <v>0.1341669102341089</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1492.73</v>
+        <v>1494.33</v>
       </c>
       <c r="D3">
-        <v>43.347167647299997</v>
+        <v>43.339867927299998</v>
       </c>
       <c r="E3">
-        <v>-114.168742368</v>
+        <v>-114.207704861</v>
       </c>
       <c r="F3">
-        <v>5.0900686110381461E-2</v>
+        <v>0.23746564852039292</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1491.65</v>
+        <v>1494.14</v>
       </c>
       <c r="D4">
-        <v>43.346778503300001</v>
+        <v>43.339512089499998</v>
       </c>
       <c r="E4">
-        <v>-114.168501507</v>
+        <v>-114.20759710199999</v>
       </c>
       <c r="F4">
-        <v>0.2713243551481731</v>
+        <v>0.19853198485674126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1491.51</v>
+        <v>1494.05</v>
       </c>
       <c r="D5">
-        <v>43.3463597776</v>
+        <v>43.339252932599997</v>
       </c>
       <c r="E5">
-        <v>-114.168367768</v>
+        <v>-114.207190391</v>
       </c>
       <c r="F5">
-        <v>0.26620161176723145</v>
+        <v>0.26307665821416842</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1491.56</v>
+        <v>1493.96</v>
       </c>
       <c r="D6">
-        <v>43.345927305700002</v>
+        <v>43.338947809700002</v>
       </c>
       <c r="E6">
-        <v>-114.168203459</v>
+        <v>-114.20683429</v>
       </c>
       <c r="F6">
-        <v>0.2013866441892242</v>
+        <v>7.5002537685994311E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1491.57</v>
+        <v>1493.94</v>
       </c>
       <c r="D7">
-        <v>43.345533560900002</v>
+        <v>43.338875953299997</v>
       </c>
       <c r="E7">
-        <v>-114.168078749</v>
+        <v>-114.206272971</v>
       </c>
       <c r="F7">
-        <v>0.14973216492536648</v>
+        <v>6.1519587775407641E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1491.38</v>
+        <v>1493.89</v>
       </c>
       <c r="D8">
-        <v>43.345554357700003</v>
+        <v>43.3388550162</v>
       </c>
       <c r="E8">
-        <v>-114.16747511</v>
+        <v>-114.20569365</v>
       </c>
       <c r="F8">
-        <v>0.10885087056281222</v>
+        <v>0.20504799448942682</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1491.31</v>
+        <v>1493.66</v>
       </c>
       <c r="D9">
-        <v>43.345384526499998</v>
+        <v>43.339139038399999</v>
       </c>
       <c r="E9">
-        <v>-114.16695471200001</v>
+        <v>-114.20524526200001</v>
       </c>
       <c r="F9">
-        <v>8.3811147965496657E-2</v>
+        <v>0.12300404962995005</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1491.21</v>
+        <v>1493.69</v>
       </c>
       <c r="D10">
-        <v>43.345006338700003</v>
+        <v>43.339133132699999</v>
       </c>
       <c r="E10">
-        <v>-114.16665219399999</v>
+        <v>-114.204694077</v>
       </c>
       <c r="F10">
-        <v>0.18419863375715981</v>
+        <v>5.5767206440592632E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1491.04</v>
+        <v>1493.64</v>
       </c>
       <c r="D11">
-        <v>43.344712331499998</v>
+        <v>43.338741403900002</v>
       </c>
       <c r="E11">
-        <v>-114.166201359</v>
+        <v>-114.204519594</v>
       </c>
       <c r="F11">
-        <v>0.12668476251885508</v>
+        <v>0.16032876418194811</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1490.74</v>
+        <v>1493.51</v>
       </c>
       <c r="D12">
-        <v>43.344533978400001</v>
+        <v>43.338314662499997</v>
       </c>
       <c r="E12">
-        <v>-114.16564791</v>
+        <v>-114.20446965799999</v>
       </c>
       <c r="F12">
-        <v>0.10299235897597669</v>
+        <v>0.13950634243236879</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1490.69</v>
+        <v>1493.2</v>
       </c>
       <c r="D13">
-        <v>43.344711783000001</v>
+        <v>43.338005015199997</v>
       </c>
       <c r="E13">
-        <v>-114.16509234199999</v>
+        <v>-114.20409979</v>
       </c>
       <c r="F13">
-        <v>0.12951624306784565</v>
+        <v>0.13494206358509994</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1490.49</v>
+        <v>1493.27</v>
       </c>
       <c r="D14">
-        <v>43.344771458099999</v>
+        <v>43.337909334499997</v>
       </c>
       <c r="E14">
-        <v>-114.164485101</v>
+        <v>-114.203688223</v>
       </c>
       <c r="F14">
-        <v>0.17489869252160067</v>
+        <v>0.19699770410178188</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1490.24</v>
+        <v>1492.85</v>
       </c>
       <c r="D15">
-        <v>43.344684234900001</v>
+        <v>43.337541406500002</v>
       </c>
       <c r="E15">
-        <v>-114.163882074</v>
+        <v>-114.203393617</v>
       </c>
       <c r="F15">
-        <v>0.16779244530534632</v>
+        <v>0.10780087895051381</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1490.16</v>
+        <v>1492.74</v>
       </c>
       <c r="D16">
-        <v>43.344560328</v>
+        <v>43.337293426999999</v>
       </c>
       <c r="E16">
-        <v>-114.163299579</v>
+        <v>-114.203080133</v>
       </c>
       <c r="F16">
-        <v>0.10400904329942451</v>
+        <v>0.16254483747820794</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1490.08</v>
+        <v>1492.68</v>
       </c>
       <c r="D17">
-        <v>43.344254419099997</v>
+        <v>43.3370022087</v>
       </c>
       <c r="E17">
-        <v>-114.162852616</v>
+        <v>-114.20279239</v>
       </c>
       <c r="F17">
-        <v>0.1978111049782986</v>
+        <v>0.13989860820146235</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1489.9</v>
+        <v>1492.55</v>
       </c>
       <c r="D18">
-        <v>43.343955814300003</v>
+        <v>43.336858402899999</v>
       </c>
       <c r="E18">
-        <v>-114.162414752</v>
+        <v>-114.202455922</v>
       </c>
       <c r="F18">
-        <v>0.11326480254855401</v>
+        <v>0.17986234338668108</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1489.82</v>
+        <v>1492.44</v>
       </c>
       <c r="D19">
-        <v>43.343892397700003</v>
+        <v>43.336758996199997</v>
       </c>
       <c r="E19">
-        <v>-114.16180713</v>
+        <v>-114.20187645199999</v>
       </c>
       <c r="F19">
-        <v>0.11384510585543509</v>
+        <v>0.14350438965414719</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1489.78</v>
+        <v>1492.38</v>
       </c>
       <c r="D20">
-        <v>43.344000923300001</v>
+        <v>43.336848142800001</v>
       </c>
       <c r="E20">
-        <v>-114.16121376</v>
+        <v>-114.20137674</v>
       </c>
       <c r="F20">
-        <v>9.9134555583599043E-2</v>
+        <v>0.18460430928477875</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1489.68</v>
+        <v>1492.35</v>
       </c>
       <c r="D21">
-        <v>43.344260720000001</v>
+        <v>43.336484996800003</v>
       </c>
       <c r="E21">
-        <v>-114.16071781399999</v>
+        <v>-114.20136146599999</v>
       </c>
       <c r="F21">
-        <v>9.4829796206745226E-2</v>
+        <v>0.36835745675354103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1489.63</v>
+        <v>1492.23</v>
       </c>
       <c r="D22">
-        <v>43.344542102699997</v>
+        <v>43.336227766900002</v>
       </c>
       <c r="E22">
-        <v>-114.160323099</v>
+        <v>-114.20154097299999</v>
       </c>
       <c r="F22">
-        <v>0.14337897844436312</v>
+        <v>0.28193615789790644</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1489.44</v>
+        <v>1492.2</v>
       </c>
       <c r="D23">
-        <v>43.344718983100002</v>
+        <v>43.335859313</v>
       </c>
       <c r="E23">
-        <v>-114.159875863</v>
+        <v>-114.20173323</v>
       </c>
       <c r="F23">
-        <v>0.11338085292666233</v>
+        <v>0.14960248003545365</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1489.52</v>
+        <v>1492.27</v>
       </c>
       <c r="D24">
-        <v>43.344780997900003</v>
+        <v>43.335475333200002</v>
       </c>
       <c r="E24">
-        <v>-114.159491066</v>
+        <v>-114.20192491</v>
       </c>
       <c r="F24">
-        <v>0.1445942440591042</v>
+        <v>0.35413271184783862</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1489.29</v>
+        <v>1492.39</v>
       </c>
       <c r="D25">
-        <v>43.344685230800003</v>
+        <v>43.335148043399997</v>
       </c>
       <c r="E25">
-        <v>-114.15911767</v>
+        <v>-114.201690837</v>
       </c>
       <c r="F25">
-        <v>0.13976321882337367</v>
+        <v>0.4340198774150929</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1489.39</v>
+        <v>1492.07</v>
       </c>
       <c r="D26">
-        <v>43.3444255418</v>
+        <v>43.3349754348</v>
       </c>
       <c r="E26">
-        <v>-114.158862677</v>
+        <v>-114.20125733099999</v>
       </c>
       <c r="F26">
-        <v>0.19291335579519917</v>
+        <v>0.14932230492684451</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1489.31</v>
+        <v>1492.02</v>
       </c>
       <c r="D27">
-        <v>43.344142094699997</v>
+        <v>43.334781892599999</v>
       </c>
       <c r="E27">
-        <v>-114.158627169</v>
+        <v>-114.200993462</v>
       </c>
       <c r="F27">
-        <v>0.16783202673530692</v>
+        <v>0.35594111046075894</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1489.36</v>
+        <v>1491.85</v>
       </c>
       <c r="D28">
-        <v>43.343723107599999</v>
+        <v>43.334521279900002</v>
       </c>
       <c r="E28">
-        <v>-114.15855089999999</v>
+        <v>-114.20075925</v>
       </c>
       <c r="F28">
-        <v>0.2178073549605303</v>
+        <v>0.18953830783094314</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1489.24</v>
+        <v>1491.72</v>
       </c>
       <c r="D29">
-        <v>43.343460520400001</v>
+        <v>43.3343226382</v>
       </c>
       <c r="E29">
-        <v>-114.158243568</v>
+        <v>-114.200488893</v>
       </c>
       <c r="F29">
-        <v>4.2792762883896968E-2</v>
+        <v>0.31965920005347243</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1489.31</v>
+        <v>1491.74</v>
       </c>
       <c r="D30">
-        <v>43.343547337700002</v>
+        <v>43.333973395999998</v>
       </c>
       <c r="E30">
-        <v>-114.15767925599999</v>
+        <v>-114.200301149</v>
       </c>
       <c r="F30">
-        <v>7.9115703657294478E-2</v>
+        <v>0.19581582518678972</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1489.33</v>
+        <v>1491.65</v>
       </c>
       <c r="D31">
-        <v>43.343370732099999</v>
+        <v>43.333583731899999</v>
       </c>
       <c r="E31">
-        <v>-114.157191058</v>
+        <v>-114.20053572499999</v>
       </c>
       <c r="F31">
-        <v>8.8695453973271443E-2</v>
+        <v>0.2318967482072459</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1489.14</v>
+        <v>1491.33</v>
       </c>
       <c r="D32">
-        <v>43.343173019300004</v>
+        <v>43.333320040099998</v>
       </c>
       <c r="E32">
-        <v>-114.15672460099999</v>
+        <v>-114.200154043</v>
       </c>
       <c r="F32">
-        <v>0.16414228794456845</v>
+        <v>0.33603088139729831</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1489.03</v>
+        <v>1491.35</v>
       </c>
       <c r="D33">
-        <v>43.343117487299999</v>
+        <v>43.332968641699999</v>
       </c>
       <c r="E33">
-        <v>-114.15617810000001</v>
+        <v>-114.199808834</v>
       </c>
       <c r="F33">
-        <v>7.4298580329522884E-2</v>
+        <v>0.13695561968019077</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1488.6</v>
+        <v>1491</v>
       </c>
       <c r="D34">
-        <v>43.342783101000002</v>
+        <v>43.3325312029</v>
       </c>
       <c r="E34">
-        <v>-114.155771042</v>
+        <v>-114.199685074</v>
       </c>
       <c r="F34">
-        <v>0.19361260477680795</v>
+        <v>0.2645532074359454</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1488.31</v>
+        <v>1490.86</v>
       </c>
       <c r="D35">
-        <v>43.342422265000003</v>
+        <v>43.332173649300003</v>
       </c>
       <c r="E35">
-        <v>-114.155412492</v>
+        <v>-114.19942055200001</v>
       </c>
       <c r="F35">
-        <v>0.11087311922600947</v>
+        <v>0.26404690442931006</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36">
+        <v>1490.71</v>
+      </c>
+      <c r="D36">
+        <v>43.331972611399998</v>
+      </c>
+      <c r="E36">
+        <v>-114.198972708</v>
+      </c>
+      <c r="F36">
+        <v>0.13038879235957984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1490.57</v>
+      </c>
+      <c r="D37">
+        <v>43.3316962412</v>
+      </c>
+      <c r="E37">
+        <v>-114.19849298699999</v>
+      </c>
+      <c r="F37">
+        <v>7.9373302602945311E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1490.58</v>
+      </c>
+      <c r="D38">
+        <v>43.331304365100003</v>
+      </c>
+      <c r="E38">
+        <v>-114.19822129400001</v>
+      </c>
+      <c r="F38">
+        <v>6.2342935891356394E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1491.37</v>
+      </c>
+      <c r="D39">
+        <v>43.331021322799998</v>
+      </c>
+      <c r="E39">
+        <v>-114.19776104899999</v>
+      </c>
+      <c r="F39">
+        <v>9.9210712249596184E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1490.1</v>
+      </c>
+      <c r="D40">
+        <v>43.330656847199997</v>
+      </c>
+      <c r="E40">
+        <v>-114.19740364499999</v>
+      </c>
+      <c r="F40">
+        <v>0.17148069023690199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1489.51</v>
+      </c>
+      <c r="D41">
+        <v>43.3302229393</v>
+      </c>
+      <c r="E41">
+        <v>-114.197256991</v>
+      </c>
+      <c r="F41">
+        <v>0.25432888723894076</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1489.2</v>
+      </c>
+      <c r="D42">
+        <v>43.329817245999998</v>
+      </c>
+      <c r="E42">
+        <v>-114.197162185</v>
+      </c>
+      <c r="F42">
+        <v>0.14956934529495056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>1489.15</v>
+      </c>
+      <c r="D43">
+        <v>43.329411524699999</v>
+      </c>
+      <c r="E43">
+        <v>-114.19692059</v>
+      </c>
+      <c r="F43">
+        <v>0.1458248508941227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>1489.08</v>
+      </c>
+      <c r="D44">
+        <v>43.329000092299999</v>
+      </c>
+      <c r="E44">
+        <v>-114.19681850000001</v>
+      </c>
+      <c r="F44">
+        <v>0.11744629407131064</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>1488.84</v>
+      </c>
+      <c r="D45">
+        <v>43.328653333600002</v>
+      </c>
+      <c r="E45">
+        <v>-114.196471067</v>
+      </c>
+      <c r="F45">
+        <v>6.3081878720862405E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>1488.62</v>
+      </c>
+      <c r="D46">
+        <v>43.328225978699997</v>
+      </c>
+      <c r="E46">
+        <v>-114.196395662</v>
+      </c>
+      <c r="F46">
+        <v>7.4900507451710521E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>1488.64</v>
+      </c>
+      <c r="D47">
+        <v>43.3277931047</v>
+      </c>
+      <c r="E47">
+        <v>-114.19650757799999</v>
+      </c>
+      <c r="F47">
+        <v>7.3228383651774628E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>1488.6</v>
+      </c>
+      <c r="D48">
+        <v>43.327393541500001</v>
+      </c>
+      <c r="E48">
+        <v>-114.19624580200001</v>
+      </c>
+      <c r="F48">
+        <v>4.147677508252802E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>1488.65</v>
+      </c>
+      <c r="D49">
+        <v>43.327378912100002</v>
+      </c>
+      <c r="E49">
+        <v>-114.195690379</v>
+      </c>
+      <c r="F49">
+        <v>3.5684203095636309E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>1488.54</v>
+      </c>
+      <c r="D50">
+        <v>43.3271360767</v>
+      </c>
+      <c r="E50">
+        <v>-114.195198178</v>
+      </c>
+      <c r="F50">
+        <v>4.9769648340952481E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>1488.49</v>
+      </c>
+      <c r="D51">
+        <v>43.327073932200001</v>
+      </c>
+      <c r="E51">
+        <v>-114.19458978500001</v>
+      </c>
+      <c r="F51">
+        <v>5.4622282987416448E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
         <v>1488.44</v>
       </c>
-      <c r="D36">
-        <v>43.342140306499999</v>
-      </c>
-      <c r="E36">
-        <v>-114.154939849</v>
-      </c>
-      <c r="F36">
-        <v>1.3599140148034553E-2</v>
+      <c r="D52">
+        <v>43.326866348499998</v>
+      </c>
+      <c r="E52">
+        <v>-114.194063687</v>
+      </c>
+      <c r="F52">
+        <v>8.5060267480291524E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>41</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>1488.26</v>
+      </c>
+      <c r="D53">
+        <v>43.326468950299997</v>
+      </c>
+      <c r="E53">
+        <v>-114.193839709</v>
+      </c>
+      <c r="F53">
+        <v>8.2072896248251315E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>1488.23</v>
+      </c>
+      <c r="D54">
+        <v>43.326137733700001</v>
+      </c>
+      <c r="E54">
+        <v>-114.193535979</v>
+      </c>
+      <c r="F54">
+        <v>0.12236540348190289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>1488.05</v>
+      </c>
+      <c r="D55">
+        <v>43.325782810600003</v>
+      </c>
+      <c r="E55">
+        <v>-114.19322627699999</v>
+      </c>
+      <c r="F55">
+        <v>0.11437862062231346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>1487.85</v>
+      </c>
+      <c r="D56">
+        <v>43.325576906899997</v>
+      </c>
+      <c r="E56">
+        <v>-114.19269509999999</v>
+      </c>
+      <c r="F56">
+        <v>0.12317022293125918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>1487.79</v>
+      </c>
+      <c r="D57">
+        <v>43.325206853799997</v>
+      </c>
+      <c r="E57">
+        <v>-114.192383276</v>
+      </c>
+      <c r="F57">
+        <v>0.25478164999722536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>1487.81</v>
+      </c>
+      <c r="D58">
+        <v>43.324949989300002</v>
+      </c>
+      <c r="E58">
+        <v>-114.192849885</v>
+      </c>
+      <c r="F58">
+        <v>0.12294104695089811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>41</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>1487.68</v>
+      </c>
+      <c r="D59">
+        <v>43.324545617399998</v>
+      </c>
+      <c r="E59">
+        <v>-114.192882635</v>
+      </c>
+      <c r="F59">
+        <v>0.1864129878940744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>1487.75</v>
+      </c>
+      <c r="D60">
+        <v>43.324222361099999</v>
+      </c>
+      <c r="E60">
+        <v>-114.193117132</v>
+      </c>
+      <c r="F60">
+        <v>0.48137424788950789</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>41</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>1487.62</v>
+      </c>
+      <c r="D61">
+        <v>43.323824470200002</v>
+      </c>
+      <c r="E61">
+        <v>-114.192924082</v>
+      </c>
+      <c r="F61">
+        <v>0.16666794665612594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>41</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>1487.56</v>
+      </c>
+      <c r="D62">
+        <v>43.3236885771</v>
+      </c>
+      <c r="E62">
+        <v>-114.19242627200001</v>
+      </c>
+      <c r="F62">
+        <v>0.10627647723627616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>1487.27</v>
+      </c>
+      <c r="D63">
+        <v>43.323528459400002</v>
+      </c>
+      <c r="E63">
+        <v>-114.191941695</v>
+      </c>
+      <c r="F63">
+        <v>0.19511698712040201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>1487.33</v>
+      </c>
+      <c r="D64">
+        <v>43.323167439300001</v>
+      </c>
+      <c r="E64">
+        <v>-114.192214146</v>
+      </c>
+      <c r="F64">
+        <v>0.22066768216698246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>41</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>1487.15</v>
+      </c>
+      <c r="D65">
+        <v>43.322896271200001</v>
+      </c>
+      <c r="E65">
+        <v>-114.19174903699999</v>
+      </c>
+      <c r="F65">
+        <v>0.24301140302362395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>41</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>1486.97</v>
+      </c>
+      <c r="D66">
+        <v>43.322570453099999</v>
+      </c>
+      <c r="E66">
+        <v>-114.191397655</v>
+      </c>
+      <c r="F66">
+        <v>0.18669709453883226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>1486.85</v>
+      </c>
+      <c r="D67">
+        <v>43.322438570400003</v>
+      </c>
+      <c r="E67">
+        <v>-114.19084612499999</v>
+      </c>
+      <c r="F67">
+        <v>0.3265506113076419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>1486.63</v>
+      </c>
+      <c r="D68">
+        <v>43.3220157461</v>
+      </c>
+      <c r="E68">
+        <v>-114.19065440599999</v>
+      </c>
+      <c r="F68">
+        <v>0.280960325966367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>1486.81</v>
+      </c>
+      <c r="D69">
+        <v>43.321600557099998</v>
+      </c>
+      <c r="E69">
+        <v>-114.19044003099999</v>
+      </c>
+      <c r="F69">
+        <v>0.29209968844406198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>41</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>1486.74</v>
+      </c>
+      <c r="D70">
+        <v>43.3212150536</v>
+      </c>
+      <c r="E70">
+        <v>-114.19018048700001</v>
+      </c>
+      <c r="F70">
+        <v>0.21907262059574595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>41</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>1486.71</v>
+      </c>
+      <c r="D71">
+        <v>43.320795670899997</v>
+      </c>
+      <c r="E71">
+        <v>-114.19028757700001</v>
+      </c>
+      <c r="F71">
+        <v>0.39052482258815302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>41</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>1486.29</v>
+      </c>
+      <c r="D72">
+        <v>43.320441435500001</v>
+      </c>
+      <c r="E72">
+        <v>-114.19064579099999</v>
+      </c>
+      <c r="F72">
+        <v>0.24996856565576128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>1486.29</v>
+      </c>
+      <c r="D73">
+        <v>43.320023458199998</v>
+      </c>
+      <c r="E73">
+        <v>-114.19084017500001</v>
+      </c>
+      <c r="F73">
+        <v>0.22156037327592837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>41</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>1486.11</v>
+      </c>
+      <c r="D74">
+        <v>43.3195935715</v>
+      </c>
+      <c r="E74">
+        <v>-114.190683912</v>
+      </c>
+      <c r="F74">
+        <v>0.29847633399002588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>41</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>1486.05</v>
+      </c>
+      <c r="D75">
+        <v>43.319216331299998</v>
+      </c>
+      <c r="E75">
+        <v>-114.19039089499999</v>
+      </c>
+      <c r="F75">
+        <v>6.0745550819285267E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>41</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>1485.88</v>
+      </c>
+      <c r="D76">
+        <v>43.319263137999997</v>
+      </c>
+      <c r="E76">
+        <v>-114.189803262</v>
+      </c>
+      <c r="F76">
+        <v>0.24696145096135513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>41</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>1485.88</v>
+      </c>
+      <c r="D77">
+        <v>43.319518633500003</v>
+      </c>
+      <c r="E77">
+        <v>-114.18936549599999</v>
+      </c>
+      <c r="F77">
+        <v>0.2455028193641528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>1485.6</v>
+      </c>
+      <c r="D78">
+        <v>43.319459815599998</v>
+      </c>
+      <c r="E78">
+        <v>-114.189066029</v>
+      </c>
+      <c r="F78">
+        <v>0.21328422180748358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>1485.35</v>
+      </c>
+      <c r="D79">
+        <v>43.319141440599999</v>
+      </c>
+      <c r="E79">
+        <v>-114.18897837599999</v>
+      </c>
+      <c r="F79">
+        <v>0.22753334246704648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>41</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>1485.29</v>
+      </c>
+      <c r="D80">
+        <v>43.318912588099998</v>
+      </c>
+      <c r="E80">
+        <v>-114.188468632</v>
+      </c>
+      <c r="F80">
+        <v>6.2036584127488782E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>41</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>1485.16</v>
+      </c>
+      <c r="D81">
+        <v>43.3190783465</v>
+      </c>
+      <c r="E81">
+        <v>-114.187942691</v>
+      </c>
+      <c r="F81">
+        <v>0.10728823579258535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>1485.12</v>
+      </c>
+      <c r="D82">
+        <v>43.318867860499999</v>
+      </c>
+      <c r="E82">
+        <v>-114.187420281</v>
+      </c>
+      <c r="F82">
+        <v>0.11519116751792435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>41</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1484.91</v>
+      </c>
+      <c r="D83">
+        <v>43.318458303699998</v>
+      </c>
+      <c r="E83">
+        <v>-114.187184777</v>
+      </c>
+      <c r="F83">
+        <v>0.16960387995266696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>1485.05</v>
+      </c>
+      <c r="D84">
+        <v>43.318486943499998</v>
+      </c>
+      <c r="E84">
+        <v>-114.186848716</v>
+      </c>
+      <c r="F84">
+        <v>9.8353523153035777E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>41</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>1484.92</v>
+      </c>
+      <c r="D85">
+        <v>43.318618684</v>
+      </c>
+      <c r="E85">
+        <v>-114.18647600600001</v>
+      </c>
+      <c r="F85">
+        <v>0.29498734522925879</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>41</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>1484.82</v>
+      </c>
+      <c r="D86">
+        <v>43.318199726000003</v>
+      </c>
+      <c r="E86">
+        <v>-114.186667836</v>
+      </c>
+      <c r="F86">
+        <v>0.27073720758267122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>41</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>1484.71</v>
+      </c>
+      <c r="D87">
+        <v>43.317781155799999</v>
+      </c>
+      <c r="E87">
+        <v>-114.18669103000001</v>
+      </c>
+      <c r="F87">
+        <v>0.22505929632726579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>41</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1484.94</v>
+      </c>
+      <c r="D88">
+        <v>43.317369875399997</v>
+      </c>
+      <c r="E88">
+        <v>-114.18645359200001</v>
+      </c>
+      <c r="F88">
+        <v>2.7330701733016383E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>41</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>1484.98</v>
+      </c>
+      <c r="D89">
+        <v>43.316931301700002</v>
+      </c>
+      <c r="E89">
+        <v>-114.186315952</v>
+      </c>
+      <c r="F89">
+        <v>2.3762513105152885E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>41</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>1484.91</v>
+      </c>
+      <c r="D90">
+        <v>43.316486567200002</v>
+      </c>
+      <c r="E90">
+        <v>-114.186224161</v>
+      </c>
+      <c r="F90">
+        <v>2.8981524196703731E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>41</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>1484.41</v>
+      </c>
+      <c r="D91">
+        <v>43.3160559417</v>
+      </c>
+      <c r="E91">
+        <v>-114.186055006</v>
+      </c>
+      <c r="F91">
+        <v>0.16118292346570368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>41</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>1484.36</v>
+      </c>
+      <c r="D92">
+        <v>43.315648938899997</v>
+      </c>
+      <c r="E92">
+        <v>-114.185948774</v>
+      </c>
+      <c r="F92">
+        <v>0.27919067836580969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>41</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>1484.44</v>
+      </c>
+      <c r="D93">
+        <v>43.315215201500003</v>
+      </c>
+      <c r="E93">
+        <v>-114.185966159</v>
+      </c>
+      <c r="F93">
+        <v>5.7166841995543748E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>41</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>1484.41</v>
+      </c>
+      <c r="D94">
+        <v>43.314821074000001</v>
+      </c>
+      <c r="E94">
+        <v>-114.186239805</v>
+      </c>
+      <c r="F94">
+        <v>0.27424475649648011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>41</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>1484.34</v>
+      </c>
+      <c r="D95">
+        <v>43.3144277066</v>
+      </c>
+      <c r="E95">
+        <v>-114.186014855</v>
+      </c>
+      <c r="F95">
+        <v>0.1899137994211742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>41</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>1484.43</v>
+      </c>
+      <c r="D96">
+        <v>43.3140018681</v>
+      </c>
+      <c r="E96">
+        <v>-114.18592088699999</v>
+      </c>
+      <c r="F96">
+        <v>6.6181470884759439E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>41</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>1484.42</v>
+      </c>
+      <c r="D97">
+        <v>43.313575155800002</v>
+      </c>
+      <c r="E97">
+        <v>-114.18594737700001</v>
+      </c>
+      <c r="F97">
+        <v>3.1316979687230052E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>41</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>1484.39</v>
+      </c>
+      <c r="D98">
+        <v>43.313341559599998</v>
+      </c>
+      <c r="E98">
+        <v>-114.18545787799999</v>
+      </c>
+      <c r="F98">
+        <v>3.1131322294544989E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>41</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>1484.56</v>
+      </c>
+      <c r="D99">
+        <v>43.313207456400001</v>
+      </c>
+      <c r="E99">
+        <v>-114.18487326100001</v>
+      </c>
+      <c r="F99">
+        <v>2.3375348487570061E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>41</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>1484.42</v>
+      </c>
+      <c r="D100">
+        <v>43.312904512000003</v>
+      </c>
+      <c r="E100">
+        <v>-114.18443136499999</v>
+      </c>
+      <c r="F100">
+        <v>8.7317597822506088E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>41</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>1484.44</v>
+      </c>
+      <c r="D101">
+        <v>43.312710595299997</v>
+      </c>
+      <c r="E101">
+        <v>-114.183982144</v>
+      </c>
+      <c r="F101">
+        <v>4.8849908158118086E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>41</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>1483.68</v>
+      </c>
+      <c r="D102">
+        <v>43.312657836299998</v>
+      </c>
+      <c r="E102">
+        <v>-114.183452782</v>
+      </c>
+      <c r="F102">
+        <v>7.7023043896938231E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>41</v>
+      </c>
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>1483.76</v>
+      </c>
+      <c r="D103">
+        <v>43.312412795500002</v>
+      </c>
+      <c r="E103">
+        <v>-114.182981763</v>
+      </c>
+      <c r="F103">
+        <v>3.6727225347871498E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>41</v>
+      </c>
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>1483.79</v>
+      </c>
+      <c r="D104">
+        <v>43.3124009824</v>
+      </c>
+      <c r="E104">
+        <v>-114.182373095</v>
+      </c>
+      <c r="F104">
+        <v>2.7699155970960128E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>41</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>1483.62</v>
+      </c>
+      <c r="D105">
+        <v>43.312285783199997</v>
+      </c>
+      <c r="E105">
+        <v>-114.181839702</v>
+      </c>
+      <c r="F105">
+        <v>5.2268333207960531E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>41</v>
+      </c>
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>43.311950499399998</v>
+      </c>
+      <c r="E106">
+        <v>-114.181434657</v>
+      </c>
+      <c r="F106">
+        <v>0.29726593453754258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>43.311703938100003</v>
+      </c>
+      <c r="E107">
+        <v>-114.180925895</v>
+      </c>
+      <c r="F107">
+        <v>0.21403966078207878</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>41</v>
+      </c>
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>43.311498911699999</v>
+      </c>
+      <c r="E108">
+        <v>-114.180380533</v>
+      </c>
+      <c r="F108">
+        <v>0.19419697297552346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>43.311204042599996</v>
+      </c>
+      <c r="E109">
+        <v>-114.179936068</v>
+      </c>
+      <c r="F109">
+        <v>6.5920394440917005E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>41</v>
+      </c>
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>43.311141540800001</v>
+      </c>
+      <c r="E110">
+        <v>-114.179342578</v>
+      </c>
+      <c r="F110">
+        <v>9.8963447961663356E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>41</v>
+      </c>
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>43.311096408099999</v>
+      </c>
+      <c r="E111">
+        <v>-114.178766483</v>
+      </c>
+      <c r="F111">
+        <v>0.11379264679870624</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>41</v>
+      </c>
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>43.311045733299999</v>
+      </c>
+      <c r="E112">
+        <v>-114.178178136</v>
+      </c>
+      <c r="F112">
+        <v>3.8888875570978643E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>41</v>
+      </c>
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>43.310696324299997</v>
+      </c>
+      <c r="E113">
+        <v>-114.17794889300001</v>
+      </c>
+      <c r="F113">
+        <v>6.5118038811529985E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>41</v>
+      </c>
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>43.310494591699999</v>
+      </c>
+      <c r="E114">
+        <v>-114.17846518</v>
+      </c>
+      <c r="F114">
+        <v>5.4583819313944522E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>41</v>
+      </c>
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>43.310164064299997</v>
+      </c>
+      <c r="E115">
+        <v>-114.178858014</v>
+      </c>
+      <c r="F115">
+        <v>5.2924663856601203E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>41</v>
+      </c>
+      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>43.309838494799997</v>
+      </c>
+      <c r="E116">
+        <v>-114.17854665500001</v>
+      </c>
+      <c r="F116">
+        <v>5.2737605089036403E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>41</v>
+      </c>
+      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>43.309611964799998</v>
+      </c>
+      <c r="E117">
+        <v>-114.178018256</v>
+      </c>
+      <c r="F117">
+        <v>3.123387280141313E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>41</v>
+      </c>
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>43.3093938126</v>
+      </c>
+      <c r="E118">
+        <v>-114.17757580200001</v>
+      </c>
+      <c r="F118">
+        <v>8.0733688006391482E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>41</v>
+      </c>
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>43.309004482299997</v>
+      </c>
+      <c r="E119">
+        <v>-114.177297055</v>
+      </c>
+      <c r="F119">
+        <v>5.0328020947681011E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>41</v>
+      </c>
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>43.308625737699998</v>
+      </c>
+      <c r="E120">
+        <v>-114.176995676</v>
+      </c>
+      <c r="F120">
+        <v>2.8018605316875885E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>41</v>
+      </c>
+      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>43.308933221399997</v>
+      </c>
+      <c r="E121">
+        <v>-114.176640205</v>
+      </c>
+      <c r="F121">
+        <v>3.5582053542017412E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>41</v>
+      </c>
+      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>43.309052159899998</v>
+      </c>
+      <c r="E122">
+        <v>-114.176065196</v>
+      </c>
+      <c r="F122">
+        <v>2.4309832164103956E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>41</v>
+      </c>
+      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>43.308889819900003</v>
+      </c>
+      <c r="E123">
+        <v>-114.175511434</v>
+      </c>
+      <c r="F123">
+        <v>3.4447252125942796E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>43.309216692900002</v>
+      </c>
+      <c r="E124">
+        <v>-114.175277941</v>
+      </c>
+      <c r="F124">
+        <v>6.8651834653893171E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>43.309548760799998</v>
+      </c>
+      <c r="E125">
+        <v>-114.174913835</v>
+      </c>
+      <c r="F125">
+        <v>2.9509755552072268E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>43.3093079979</v>
+      </c>
+      <c r="E126">
+        <v>-114.174477599</v>
+      </c>
+      <c r="F126">
+        <v>7.6136999275115996E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>41</v>
+      </c>
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>43.3089103099</v>
+      </c>
+      <c r="E127">
+        <v>-114.174242006</v>
+      </c>
+      <c r="F127">
+        <v>5.3799863333342413E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>41</v>
+      </c>
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>43.308720469699999</v>
+      </c>
+      <c r="E128">
+        <v>-114.173711547</v>
+      </c>
+      <c r="F128">
+        <v>5.0207890757792382E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>41</v>
+      </c>
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>43.308620955199999</v>
+      </c>
+      <c r="E129">
+        <v>-114.173261603</v>
+      </c>
+      <c r="F129">
+        <v>4.1914119763141952E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>41</v>
+      </c>
+      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>43.308742053000003</v>
+      </c>
+      <c r="E130">
+        <v>-114.17267038999999</v>
+      </c>
+      <c r="F130">
+        <v>6.8218179495347184E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>41</v>
+      </c>
+      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>43.309062701800002</v>
+      </c>
+      <c r="E131">
+        <v>-114.172310553</v>
+      </c>
+      <c r="F131">
+        <v>6.9778529750677776E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>41</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>43.309324939299998</v>
+      </c>
+      <c r="E132">
+        <v>-114.171859883</v>
+      </c>
+      <c r="F132">
+        <v>9.9405855740527377E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>41</v>
+      </c>
+      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>43.3097001947</v>
+      </c>
+      <c r="E133">
+        <v>-114.171581889</v>
+      </c>
+      <c r="F133">
+        <v>9.807737630676025E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>41</v>
+      </c>
+      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>43.309791029199999</v>
+      </c>
+      <c r="E134">
+        <v>-114.171004337</v>
+      </c>
+      <c r="F134">
+        <v>9.9344370479163169E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>41</v>
+      </c>
+      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>43.310099400699997</v>
+      </c>
+      <c r="E135">
+        <v>-114.17056055</v>
+      </c>
+      <c r="F135">
+        <v>9.3259171543974367E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>41</v>
+      </c>
+      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>43.310445870199999</v>
+      </c>
+      <c r="E136">
+        <v>-114.17051593799999</v>
+      </c>
+      <c r="F136">
+        <v>0.17844524673067552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>41</v>
+      </c>
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>43.3107174031</v>
+      </c>
+      <c r="E137">
+        <v>-114.170556827</v>
+      </c>
+      <c r="F137">
+        <v>0.19280601040134426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>41</v>
+      </c>
+      <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>43.311033222900001</v>
+      </c>
+      <c r="E138">
+        <v>-114.17015272</v>
+      </c>
+      <c r="F138">
+        <v>0.33230174107077876</v>
       </c>
     </row>
   </sheetData>
